--- a/relatorios/repasses_liberados/dentistas/01340906406/2023-08-25_relatorio_repasses_01340906406.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01340906406/2023-08-25_relatorio_repasses_01340906406.xlsx
@@ -17925,7 +17925,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18937,10 +18937,10 @@
         <v>1</v>
       </c>
       <c r="M392">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N392">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -22237,10 +22237,10 @@
         <v>0.465116</v>
       </c>
       <c r="M467">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N467">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -22765,10 +22765,10 @@
         <v>0.470588</v>
       </c>
       <c r="M479">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N479">
-        <v>15.058816</v>
+        <v>11.294112</v>
       </c>
     </row>
     <row r="480" spans="1:14">
@@ -22853,10 +22853,10 @@
         <v>0.058824</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N481">
-        <v>0.176472</v>
+        <v>0.235296</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23997,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N507">
         <v>0</v>
@@ -24085,7 +24085,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N509">
         <v>0</v>
@@ -24261,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N524">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27341,7 +27341,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N585">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N587">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N611">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N612">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N617">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -33721,10 +33721,10 @@
         <v>1</v>
       </c>
       <c r="M728">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N728">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="729" spans="1:14">
@@ -34029,10 +34029,10 @@
         <v>1</v>
       </c>
       <c r="M735">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N735">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -36141,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N783">
         <v>0</v>
@@ -36713,7 +36713,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36757,7 +36757,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -37901,10 +37901,10 @@
         <v>1</v>
       </c>
       <c r="M823">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N823">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="824" spans="1:14">
@@ -38121,10 +38121,10 @@
         <v>1</v>
       </c>
       <c r="M828">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N828">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="829" spans="1:14">
@@ -39001,7 +39001,7 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N848">
         <v>0</v>
@@ -39045,7 +39045,7 @@
         <v>0</v>
       </c>
       <c r="M849">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N849">
         <v>0</v>
@@ -41773,7 +41773,7 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N911">
         <v>0</v>
@@ -41817,7 +41817,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -41861,7 +41861,7 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N913">
         <v>0</v>
@@ -41949,7 +41949,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -42301,7 +42301,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42389,7 +42389,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -42741,7 +42741,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -42785,7 +42785,7 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N934">
         <v>0</v>
@@ -43401,7 +43401,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -43929,7 +43929,7 @@
         <v>0</v>
       </c>
       <c r="M960">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N960">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/01340906406/2023-08-25_relatorio_repasses_01340906406.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01340906406/2023-08-25_relatorio_repasses_01340906406.xlsx
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N108">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6485,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N109">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N110">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6573,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6617,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6705,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N114">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6881,10 +6881,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7013,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>9.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7453,10 +7453,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N131">
-        <v>9.504</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7893,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
-        <v>31.398</v>
+        <v>41.864</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8113,10 +8113,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -9301,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N173">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9565,10 +9565,10 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N179">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N207">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10973,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N211">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11501,10 +11501,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N223">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11545,10 +11545,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
-        <v>16.92</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11633,10 +11633,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N226">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11677,10 +11677,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N227">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11941,10 +11941,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12073,10 +12073,10 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N236">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12205,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N239">
-        <v>3.201</v>
+        <v>4.268</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12249,10 +12249,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N240">
-        <v>8.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12293,10 +12293,10 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N241">
-        <v>1.602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12425,10 +12425,10 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N244">
-        <v>1.068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12557,10 +12557,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12821,10 +12821,10 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N253">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12953,10 +12953,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12997,10 +12997,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N257">
-        <v>9.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13129,10 +13129,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N260">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13173,10 +13173,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N261">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13217,10 +13217,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N262">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13349,10 +13349,10 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N265">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -13745,10 +13745,10 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N274">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -13789,10 +13789,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N275">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -14581,10 +14581,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14625,10 +14625,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14669,10 +14669,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N295">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -15021,10 +15021,10 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N303">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -15065,10 +15065,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N304">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -15285,10 +15285,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N309">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15329,10 +15329,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N310">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15725,10 +15725,10 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N319">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15813,10 +15813,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N321">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -16121,10 +16121,10 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N328">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -16341,10 +16341,10 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N333">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -16605,10 +16605,10 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N339">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16649,10 +16649,10 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N340">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -17001,10 +17001,10 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N348">
-        <v>7.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -17529,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -17925,7 +17925,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N373">
         <v>0</v>
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18849,10 +18849,10 @@
         <v>1</v>
       </c>
       <c r="M390">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N390">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -18893,10 +18893,10 @@
         <v>1</v>
       </c>
       <c r="M391">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -18937,10 +18937,10 @@
         <v>1</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N392">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -18981,10 +18981,10 @@
         <v>1</v>
       </c>
       <c r="M393">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N393">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -19157,10 +19157,10 @@
         <v>1</v>
       </c>
       <c r="M397">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N397">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -19333,10 +19333,10 @@
         <v>1</v>
       </c>
       <c r="M401">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N401">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -19421,10 +19421,10 @@
         <v>1</v>
       </c>
       <c r="M403">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N403">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -19465,10 +19465,10 @@
         <v>1</v>
       </c>
       <c r="M404">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N404">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19509,10 +19509,10 @@
         <v>0.534884</v>
       </c>
       <c r="M405">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N405">
-        <v>19.6837312</v>
+        <v>14.7627984</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19553,10 +19553,10 @@
         <v>0.888889</v>
       </c>
       <c r="M406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N406">
-        <v>28.444448</v>
+        <v>21.333336</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -19597,10 +19597,10 @@
         <v>0.111111</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
-        <v>0.444444</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19949,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N420">
         <v>0</v>
@@ -20213,7 +20213,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -20257,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -20477,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N427">
         <v>0</v>
@@ -20521,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N428">
         <v>0</v>
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20741,10 +20741,10 @@
         <v>1</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -20873,10 +20873,10 @@
         <v>1</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N436">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -20917,10 +20917,10 @@
         <v>1</v>
       </c>
       <c r="M437">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N437">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438" spans="1:14">
@@ -20961,10 +20961,10 @@
         <v>1</v>
       </c>
       <c r="M438">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N438">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -21093,10 +21093,10 @@
         <v>1</v>
       </c>
       <c r="M441">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N441">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="442" spans="1:14">
@@ -21181,10 +21181,10 @@
         <v>1</v>
       </c>
       <c r="M443">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N443">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="444" spans="1:14">
@@ -21225,10 +21225,10 @@
         <v>1</v>
       </c>
       <c r="M444">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N444">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -21313,10 +21313,10 @@
         <v>1</v>
       </c>
       <c r="M446">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N446">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="447" spans="1:14">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N448">
         <v>0</v>
@@ -21445,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21665,7 +21665,7 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N454">
         <v>0</v>
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N455">
         <v>0</v>
@@ -21973,10 +21973,10 @@
         <v>1</v>
       </c>
       <c r="M461">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N461">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -22061,10 +22061,10 @@
         <v>1</v>
       </c>
       <c r="M463">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N463">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="464" spans="1:14">
@@ -22149,10 +22149,10 @@
         <v>1</v>
       </c>
       <c r="M465">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N465">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="466" spans="1:14">
@@ -22193,10 +22193,10 @@
         <v>1</v>
       </c>
       <c r="M466">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N466">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:14">
@@ -22237,10 +22237,10 @@
         <v>0.465116</v>
       </c>
       <c r="M467">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N467">
-        <v>0</v>
+        <v>14.883712</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -22721,10 +22721,10 @@
         <v>1</v>
       </c>
       <c r="M478">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N478">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" spans="1:14">
@@ -22853,10 +22853,10 @@
         <v>0.058824</v>
       </c>
       <c r="M481">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N481">
-        <v>0.235296</v>
+        <v>0.176472</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -22985,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -23073,7 +23073,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N492">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N493">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N494">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23821,7 +23821,7 @@
         <v>0</v>
       </c>
       <c r="M503">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N503">
         <v>0</v>
@@ -23997,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N507">
         <v>0</v>
@@ -24085,7 +24085,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N509">
         <v>0</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N516">
         <v>0</v>
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="M518">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N518">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N522">
         <v>0</v>
@@ -24701,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N523">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N524">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N533">
         <v>0</v>
@@ -25185,7 +25185,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25713,7 +25713,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N546">
         <v>0</v>
@@ -25933,10 +25933,10 @@
         <v>1</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="552" spans="1:14">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -26153,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N556">
         <v>0</v>
@@ -26285,10 +26285,10 @@
         <v>1</v>
       </c>
       <c r="M559">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N559">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="560" spans="1:14">
@@ -26329,10 +26329,10 @@
         <v>0.263158</v>
       </c>
       <c r="M560">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
-        <v>8.421056</v>
+        <v>6.315792</v>
       </c>
     </row>
     <row r="561" spans="1:14">
@@ -26549,10 +26549,10 @@
         <v>1</v>
       </c>
       <c r="M565">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N565">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -26769,10 +26769,10 @@
         <v>1</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -26813,10 +26813,10 @@
         <v>1</v>
       </c>
       <c r="M571">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N571">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -26857,10 +26857,10 @@
         <v>1</v>
       </c>
       <c r="M572">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N572">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -26901,10 +26901,10 @@
         <v>1</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N573">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -27297,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N585">
         <v>0</v>
@@ -27693,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -28177,7 +28177,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -28309,7 +28309,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N611">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N617">
         <v>0</v>
@@ -28881,7 +28881,7 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N618">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -29145,7 +29145,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -29189,7 +29189,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -30245,10 +30245,10 @@
         <v>1</v>
       </c>
       <c r="M649">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N649">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="650" spans="1:14">
@@ -30289,10 +30289,10 @@
         <v>0.833333</v>
       </c>
       <c r="M650">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N650">
-        <v>19.999992</v>
+        <v>26.666656</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -30421,10 +30421,10 @@
         <v>1</v>
       </c>
       <c r="M653">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N653">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -30465,10 +30465,10 @@
         <v>1</v>
       </c>
       <c r="M654">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N654">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -30509,10 +30509,10 @@
         <v>1</v>
       </c>
       <c r="M655">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -30949,10 +30949,10 @@
         <v>1</v>
       </c>
       <c r="M665">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N665">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="666" spans="1:14">
@@ -31081,10 +31081,10 @@
         <v>1</v>
       </c>
       <c r="M668">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N668">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="669" spans="1:14">
@@ -31389,10 +31389,10 @@
         <v>1</v>
       </c>
       <c r="M675">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N675">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="676" spans="1:14">
@@ -31433,10 +31433,10 @@
         <v>1</v>
       </c>
       <c r="M676">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N676">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="677" spans="1:14">
@@ -31477,10 +31477,10 @@
         <v>1</v>
       </c>
       <c r="M677">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N677">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="678" spans="1:14">
@@ -31873,7 +31873,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -31917,7 +31917,7 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N687">
         <v>0</v>
@@ -31961,7 +31961,7 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N688">
         <v>0</v>
@@ -32005,7 +32005,7 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N689">
         <v>0</v>
@@ -32049,7 +32049,7 @@
         <v>0</v>
       </c>
       <c r="M690">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N690">
         <v>0</v>
@@ -32093,7 +32093,7 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N691">
         <v>0</v>
@@ -32137,7 +32137,7 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N692">
         <v>0</v>
@@ -32181,7 +32181,7 @@
         <v>0</v>
       </c>
       <c r="M693">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N693">
         <v>0</v>
@@ -32313,7 +32313,7 @@
         <v>0</v>
       </c>
       <c r="M696">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N696">
         <v>0</v>
@@ -32357,7 +32357,7 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N697">
         <v>0</v>
@@ -32401,7 +32401,7 @@
         <v>0</v>
       </c>
       <c r="M698">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N698">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>0</v>
       </c>
       <c r="M705">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N705">
         <v>0</v>
@@ -32753,7 +32753,7 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N706">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N707">
         <v>0</v>
@@ -32973,7 +32973,7 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N711">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -33545,10 +33545,10 @@
         <v>1</v>
       </c>
       <c r="M724">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N724">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="725" spans="1:14">
@@ -34029,10 +34029,10 @@
         <v>1</v>
       </c>
       <c r="M735">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N735">
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -34073,10 +34073,10 @@
         <v>1</v>
       </c>
       <c r="M736">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N736">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -34117,10 +34117,10 @@
         <v>1</v>
       </c>
       <c r="M737">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N737">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="738" spans="1:14">
@@ -34337,10 +34337,10 @@
         <v>1</v>
       </c>
       <c r="M742">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N742">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -34381,7 +34381,7 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N743">
         <v>0</v>
@@ -34425,10 +34425,10 @@
         <v>0.888889</v>
       </c>
       <c r="M744">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N744">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="745" spans="1:14">
@@ -34821,10 +34821,10 @@
         <v>1</v>
       </c>
       <c r="M753">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N753">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="754" spans="1:14">
@@ -35481,7 +35481,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N768">
         <v>0</v>
@@ -35525,7 +35525,7 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N769">
         <v>0</v>
@@ -35569,7 +35569,7 @@
         <v>0</v>
       </c>
       <c r="M770">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N770">
         <v>0</v>
@@ -36097,7 +36097,7 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N782">
         <v>0</v>
@@ -36229,7 +36229,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N785">
         <v>0</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="M786">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N786">
         <v>0</v>
@@ -36669,7 +36669,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36713,7 +36713,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -37285,10 +37285,10 @@
         <v>1</v>
       </c>
       <c r="M809">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N809">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="810" spans="1:14">
@@ -37329,10 +37329,10 @@
         <v>1</v>
       </c>
       <c r="M810">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N810">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:14">
@@ -37417,10 +37417,10 @@
         <v>1</v>
       </c>
       <c r="M812">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N812">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="813" spans="1:14">
@@ -37593,10 +37593,10 @@
         <v>1</v>
       </c>
       <c r="M816">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N816">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:14">
@@ -37725,10 +37725,10 @@
         <v>1</v>
       </c>
       <c r="M819">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N819">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="820" spans="1:14">
@@ -38033,10 +38033,10 @@
         <v>1</v>
       </c>
       <c r="M826">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N826">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="827" spans="1:14">
@@ -38077,10 +38077,10 @@
         <v>1</v>
       </c>
       <c r="M827">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N827">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="828" spans="1:14">
@@ -38121,10 +38121,10 @@
         <v>1</v>
       </c>
       <c r="M828">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N828">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="829" spans="1:14">
@@ -38165,10 +38165,10 @@
         <v>1</v>
       </c>
       <c r="M829">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N829">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="830" spans="1:14">
@@ -38209,10 +38209,10 @@
         <v>1</v>
       </c>
       <c r="M830">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N830">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="831" spans="1:14">
@@ -38429,7 +38429,7 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N835">
         <v>0</v>
@@ -38517,7 +38517,7 @@
         <v>0</v>
       </c>
       <c r="M837">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N837">
         <v>0</v>
@@ -38561,7 +38561,7 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N838">
         <v>0</v>
@@ -38649,7 +38649,7 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N840">
         <v>0</v>
@@ -38693,7 +38693,7 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N841">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N842">
         <v>0</v>
@@ -38913,7 +38913,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N846">
         <v>0</v>
@@ -38957,7 +38957,7 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N847">
         <v>0</v>
@@ -39001,7 +39001,7 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N848">
         <v>0</v>
@@ -39309,7 +39309,7 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N855">
         <v>0</v>
@@ -39353,7 +39353,7 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N856">
         <v>0</v>
@@ -39441,7 +39441,7 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N858">
         <v>0</v>
@@ -39617,7 +39617,7 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N862">
         <v>0</v>
@@ -39661,7 +39661,7 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N863">
         <v>0</v>
@@ -39705,7 +39705,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39749,7 +39749,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39793,7 +39793,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -39837,7 +39837,7 @@
         <v>0</v>
       </c>
       <c r="M867">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N867">
         <v>0</v>
@@ -39881,7 +39881,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -40145,7 +40145,7 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N874">
         <v>0</v>
@@ -40277,7 +40277,7 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N877">
         <v>0</v>
@@ -40717,7 +40717,7 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="N887">
         <v>0</v>
@@ -41113,7 +41113,7 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N896">
         <v>0</v>
@@ -41157,7 +41157,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N897">
         <v>0</v>
@@ -41201,7 +41201,7 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N898">
         <v>0</v>
@@ -41245,7 +41245,7 @@
         <v>0</v>
       </c>
       <c r="M899">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N899">
         <v>0</v>
@@ -41729,7 +41729,7 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N910">
         <v>0</v>
@@ -41773,7 +41773,7 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N911">
         <v>0</v>
@@ -41861,7 +41861,7 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N913">
         <v>0</v>
@@ -41905,7 +41905,7 @@
         <v>0</v>
       </c>
       <c r="M914">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N914">
         <v>0</v>
@@ -42301,7 +42301,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42345,7 +42345,7 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N924">
         <v>0</v>
@@ -42389,7 +42389,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -42653,7 +42653,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -42785,7 +42785,7 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N934">
         <v>0</v>
@@ -42873,7 +42873,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -42917,7 +42917,7 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N937">
         <v>0</v>
@@ -42961,7 +42961,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -43093,7 +43093,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -43181,7 +43181,7 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N943">
         <v>0</v>
@@ -43357,7 +43357,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43401,7 +43401,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -43797,7 +43797,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -43841,7 +43841,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -44369,7 +44369,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N970">
         <v>0</v>
